--- a/out/production/TuThuoc-SceneBuilder/MedicineManagement/save/QLTuThuoc.xlsx
+++ b/out/production/TuThuoc-SceneBuilder/MedicineManagement/save/QLTuThuoc.xlsx
@@ -1,30 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TuThuoc-SceneBuilder\MedicineManagement\save\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{FBFCACD6-A047-4D7F-A1B2-261D9B2CA248}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B953C040-E8BE-408F-9360-D3C809C1034D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="16440" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MEDICINE" r:id="rId1" sheetId="1"/>
-    <sheet name="PRESCRIPTION" r:id="rId2" sheetId="2"/>
-    <sheet name="DISEASE" r:id="rId3" sheetId="3"/>
-    <sheet name="MEDICINE-PRESCRIPTION" r:id="rId4" sheetId="4"/>
-    <sheet name="INSTRUMENT" r:id="rId5" sheetId="5"/>
+    <sheet name="MEDICINE" sheetId="1" r:id="rId1"/>
+    <sheet name="PRESCRIPTION" sheetId="2" r:id="rId2"/>
+    <sheet name="DISEASE" sheetId="3" r:id="rId3"/>
+    <sheet name="THUOC_TRONG_TOA" sheetId="4" r:id="rId4"/>
+    <sheet name="INSTRUMENT" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -50,18 +62,12 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Acemol 500mg</t>
-  </si>
-  <si>
     <t>Hop</t>
   </si>
   <si>
     <t>Ha sot,Giam dau</t>
   </si>
   <si>
-    <t>Biragan Kids 325mg</t>
-  </si>
-  <si>
     <t>Goi</t>
   </si>
   <si>
@@ -74,15 +80,9 @@
     <t>Giam dau,Ha sot</t>
   </si>
   <si>
-    <t>Berberin 100mg</t>
-  </si>
-  <si>
     <t>Dieu tri dau bung tieu chay</t>
   </si>
   <si>
-    <t>Ausagel 100</t>
-  </si>
-  <si>
     <t>Vi</t>
   </si>
   <si>
@@ -95,33 +95,15 @@
     <t>Dieu tri roi loan tieu hoa</t>
   </si>
   <si>
-    <t>Coldacmin Flu</t>
-  </si>
-  <si>
     <t>Dieu tri cam lanh</t>
   </si>
   <si>
     <t>Decolgen ND</t>
   </si>
   <si>
-    <t>Amoxicilin 250mg</t>
-  </si>
-  <si>
     <t>Dieu tri nhiem khuan</t>
   </si>
   <si>
-    <t>Anaferon For Children</t>
-  </si>
-  <si>
-    <t>Duration</t>
-  </si>
-  <si>
-    <t>DiseaseID</t>
-  </si>
-  <si>
-    <t>5 ngay</t>
-  </si>
-  <si>
     <t>Cam lanh</t>
   </si>
   <si>
@@ -137,12 +119,6 @@
     <t>Tao bon</t>
   </si>
   <si>
-    <t>MedicineID</t>
-  </si>
-  <si>
-    <t>PrescriptionID</t>
-  </si>
-  <si>
     <t>Use</t>
   </si>
   <si>
@@ -176,12 +152,6 @@
     <t>Dung sat trung vet thuong</t>
   </si>
   <si>
-    <t>Paradol Extra</t>
-  </si>
-  <si>
-    <t>giam dau</t>
-  </si>
-  <si>
     <t>Paracetamol</t>
   </si>
   <si>
@@ -189,6 +159,54 @@
   </si>
   <si>
     <t>Giam Dau</t>
+  </si>
+  <si>
+    <t>Ngày Bắt Đầu</t>
+  </si>
+  <si>
+    <t>Ngày Kết Thúc</t>
+  </si>
+  <si>
+    <t>Acemol</t>
+  </si>
+  <si>
+    <t>Alzental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berberin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ausagel </t>
+  </si>
+  <si>
+    <t>Coldacmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amoxicilin </t>
+  </si>
+  <si>
+    <t>Anaferon</t>
+  </si>
+  <si>
+    <t>ProductID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tên </t>
+  </si>
+  <si>
+    <t>Đơn vị</t>
+  </si>
+  <si>
+    <t>PresID</t>
+  </si>
+  <si>
+    <t>Tên</t>
+  </si>
+  <si>
+    <t>Toa test 1</t>
+  </si>
+  <si>
+    <t>Lieu</t>
   </si>
 </sst>
 </file>
@@ -198,7 +216,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -208,6 +226,11 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -230,24 +253,22 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -371,21 +392,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -402,7 +423,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -456,21 +477,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="34.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="107.0" collapsed="true"/>
+    <col min="2" max="2" width="34" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="29" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="107" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -499,291 +520,292 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2.0</v>
+        <v>43</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="3">
+        <v>45005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="n" s="6">
-        <v>45005.0</v>
-      </c>
-      <c r="H2"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="F3" s="3">
+        <v>44757</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="n" s="6">
-        <v>44757.0</v>
-      </c>
-      <c r="H3"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="F4" s="3">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="C4" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F5" s="3">
+        <v>45119</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="3">
+        <v>44757</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="3">
+        <v>37467</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="3">
+        <v>37467</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="3">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="n" s="6">
-        <v>45000.0</v>
-      </c>
-      <c r="H4"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="n" s="6">
-        <v>45119.0</v>
-      </c>
-      <c r="H5"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="n" s="6">
-        <v>44757.0</v>
-      </c>
-      <c r="H6"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="D7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" t="n" s="6">
-        <v>37467.0</v>
-      </c>
-      <c r="H7"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" t="n" s="6">
-        <v>37467.0</v>
-      </c>
-      <c r="H8"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" t="n" s="6">
-        <v>45000.0</v>
-      </c>
-      <c r="H9"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" t="n" s="6">
-        <v>37467.0</v>
-      </c>
-      <c r="H10"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>10.0</v>
+      <c r="F10" s="3">
+        <v>37467</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.0</v>
+        <v>49</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" t="n" s="6">
-        <v>45005.0</v>
-      </c>
-      <c r="H11"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>11.0</v>
+        <v>21</v>
+      </c>
+      <c r="F11" s="3">
+        <v>45005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" t="n">
-        <v>6.0</v>
+        <v>38</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" t="n" s="6">
-        <v>44772.0</v>
-      </c>
-      <c r="H12"/>
+        <v>40</v>
+      </c>
+      <c r="F12" s="3">
+        <v>44772</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="4">
+        <v>44749</v>
+      </c>
+      <c r="D2" s="4">
+        <v>44757</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
@@ -798,7 +820,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -806,7 +828,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -814,7 +836,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -822,7 +844,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -830,68 +852,251 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:XFD14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2">
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row ht="12.75" r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -905,95 +1110,95 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1.0</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2.0</v>
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.0</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1.0</v>
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3.0</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.0</v>
+        <v>32</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4.0</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" t="n">
-        <v>2.0</v>
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5.0</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2.0</v>
+        <v>36</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/out/production/TuThuoc-SceneBuilder/MedicineManagement/save/QLTuThuoc.xlsx
+++ b/out/production/TuThuoc-SceneBuilder/MedicineManagement/save/QLTuThuoc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TuThuoc-SceneBuilder\MedicineManagement\save\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B953C040-E8BE-408F-9360-D3C809C1034D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A17E6B7-FC8B-4843-96C1-EA6DE26B5003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MEDICINE" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -122,36 +122,18 @@
     <t>Use</t>
   </si>
   <si>
-    <t>Nhiet ke dien tu</t>
-  </si>
-  <si>
     <t>Chiec</t>
   </si>
   <si>
     <t>Do than nhiet</t>
   </si>
   <si>
-    <t>Nhiet ke hong ngoai</t>
-  </si>
-  <si>
-    <t>May do nong do oxy</t>
-  </si>
-  <si>
     <t>Do nong do oxy trong mau</t>
   </si>
   <si>
-    <t>Bang ca nhan</t>
-  </si>
-  <si>
     <t>Bang dan bao ve vet thuong</t>
   </si>
   <si>
-    <t>Bang gac</t>
-  </si>
-  <si>
-    <t>Dung sat trung vet thuong</t>
-  </si>
-  <si>
     <t>Paracetamol</t>
   </si>
   <si>
@@ -207,6 +189,30 @@
   </si>
   <si>
     <t>Lieu</t>
+  </si>
+  <si>
+    <t>Toa Thuoc so 2</t>
+  </si>
+  <si>
+    <t>2 lan 1 ngay</t>
+  </si>
+  <si>
+    <t>Nhiệt kế điện tử Pharmacity</t>
+  </si>
+  <si>
+    <t>Nhiệt kế hồng ngoại Urgo</t>
+  </si>
+  <si>
+    <t>Máy đo nồng độ oxy trong máu iMedicare iOM-A8</t>
+  </si>
+  <si>
+    <t>Băng dán có gạc Urgosterile </t>
+  </si>
+  <si>
+    <t>Dụng cụ xét nghiệm nhanh Covid-19 Antigen Self-Test Abbott Panbio Test Kit</t>
+  </si>
+  <si>
+    <t>Test Covid</t>
   </si>
 </sst>
 </file>
@@ -216,7 +222,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -232,6 +238,13 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -255,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -263,6 +276,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -525,7 +539,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -545,7 +559,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -585,7 +599,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -605,7 +619,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C6">
         <v>3</v>
@@ -645,7 +659,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -685,7 +699,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -705,7 +719,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -725,16 +739,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C12">
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F12" s="3">
         <v>44772</v>
@@ -751,9 +765,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
@@ -768,13 +782,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -782,13 +796,27 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C2" s="4">
         <v>44749</v>
       </c>
       <c r="D2" s="4">
         <v>44757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="4">
+        <v>44754</v>
+      </c>
+      <c r="D3" s="4">
+        <v>44751</v>
       </c>
     </row>
   </sheetData>
@@ -865,7 +893,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13:XFD14"/>
@@ -875,19 +903,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" t="s">
-        <v>56</v>
-      </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -895,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -912,7 +940,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
         <v>10</v>
@@ -946,7 +974,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -963,7 +991,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
@@ -997,7 +1025,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -1031,7 +1059,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -1048,7 +1076,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -1065,16 +1093,33 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E12">
         <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1090,11 +1135,15 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="66.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1113,63 +1162,63 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1178,27 +1227,28 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
+      <c r="D6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/out/production/TuThuoc-SceneBuilder/MedicineManagement/save/QLTuThuoc.xlsx
+++ b/out/production/TuThuoc-SceneBuilder/MedicineManagement/save/QLTuThuoc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TuThuoc-SceneBuilder\MedicineManagement\save\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A17E6B7-FC8B-4843-96C1-EA6DE26B5003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F39739-5ADE-418F-9948-78EDBB74B008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MEDICINE" sheetId="1" r:id="rId1"/>
@@ -767,8 +767,8 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -816,7 +816,8 @@
         <v>44754</v>
       </c>
       <c r="D3" s="4">
-        <v>44751</v>
+        <f>DATE(2022,7,7)</f>
+        <v>44749</v>
       </c>
     </row>
   </sheetData>
@@ -1135,7 +1136,7 @@
   </sheetPr>
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>

--- a/out/production/TuThuoc-SceneBuilder/MedicineManagement/save/QLTuThuoc.xlsx
+++ b/out/production/TuThuoc-SceneBuilder/MedicineManagement/save/QLTuThuoc.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\TuThuoc-SceneBuilder\MedicineManagement\save\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F39739-5ADE-418F-9948-78EDBB74B008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{98F39739-5ADE-418F-9948-78EDBB74B008}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="1" windowHeight="16440" windowWidth="29040" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="MEDICINE" sheetId="1" r:id="rId1"/>
-    <sheet name="PRESCRIPTION" sheetId="2" r:id="rId2"/>
-    <sheet name="DISEASE" sheetId="3" r:id="rId3"/>
-    <sheet name="THUOC_TRONG_TOA" sheetId="4" r:id="rId4"/>
-    <sheet name="INSTRUMENT" sheetId="5" r:id="rId5"/>
+    <sheet name="MEDICINE" r:id="rId1" sheetId="1"/>
+    <sheet name="PRESCRIPTION" r:id="rId2" sheetId="2"/>
+    <sheet name="DISEASE" r:id="rId3" sheetId="3"/>
+    <sheet name="THUOC_TRONG_TOA" r:id="rId4" sheetId="4"/>
+    <sheet name="INSTRUMENT" r:id="rId5" sheetId="5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="59">
   <si>
     <t>ID</t>
   </si>
@@ -266,23 +266,25 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="8">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="true" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -406,21 +408,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -437,7 +439,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -491,21 +493,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="34" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="29" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="107" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="107.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
@@ -534,15 +536,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
       </c>
-      <c r="C2">
-        <v>2</v>
+      <c r="C2" t="n">
+        <v>2.0</v>
       </c>
       <c r="D2" t="s">
         <v>8</v>
@@ -550,19 +552,19 @@
       <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="3">
-        <v>45005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
+      <c r="F2" s="6" t="n">
+        <v>45005.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
       </c>
-      <c r="C3">
-        <v>5</v>
+      <c r="C3" t="n">
+        <v>5.0</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -570,19 +572,19 @@
       <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="3">
-        <v>44757</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
+      <c r="F3" s="6" t="n">
+        <v>44757.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="C4" t="n">
+        <v>1.0</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -590,19 +592,19 @@
       <c r="E4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
+      <c r="F4" s="6" t="n">
+        <v>45000.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="C5" t="n">
+        <v>1.0</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -610,19 +612,19 @@
       <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="3">
-        <v>45119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
+      <c r="F5" s="6" t="n">
+        <v>45119.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="C6">
-        <v>3</v>
+      <c r="C6" t="n">
+        <v>3.0</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
@@ -630,19 +632,19 @@
       <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="3">
-        <v>44757</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
+      <c r="F6" s="6" t="n">
+        <v>44757.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="C7">
-        <v>5</v>
+      <c r="C7" t="n">
+        <v>5.0</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
@@ -650,19 +652,19 @@
       <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="3">
-        <v>37467</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
+      <c r="F7" s="6" t="n">
+        <v>37467.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="C8">
-        <v>2</v>
+      <c r="C8" t="n">
+        <v>2.0</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -670,19 +672,19 @@
       <c r="E8" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="3">
-        <v>37467</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
+      <c r="F8" s="6" t="n">
+        <v>37467.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C9">
-        <v>4</v>
+      <c r="C9" t="n">
+        <v>4.0</v>
       </c>
       <c r="D9" t="s">
         <v>15</v>
@@ -690,19 +692,19 @@
       <c r="E9" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="3">
-        <v>45000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
+      <c r="F9" s="6" t="n">
+        <v>45000.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
       </c>
       <c r="B10" t="s">
         <v>42</v>
       </c>
-      <c r="C10">
-        <v>2</v>
+      <c r="C10" t="n">
+        <v>2.0</v>
       </c>
       <c r="D10" t="s">
         <v>8</v>
@@ -710,19 +712,19 @@
       <c r="E10" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="3">
-        <v>37467</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
+      <c r="F10" s="6" t="n">
+        <v>37467.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="C11">
-        <v>1</v>
+      <c r="C11" t="n">
+        <v>1.0</v>
       </c>
       <c r="D11" t="s">
         <v>8</v>
@@ -730,19 +732,19 @@
       <c r="E11" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="3">
-        <v>45005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
+      <c r="F11" s="6" t="n">
+        <v>45005.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
       </c>
-      <c r="C12">
-        <v>6</v>
+      <c r="C12" t="n">
+        <v>6.0</v>
       </c>
       <c r="D12" t="s">
         <v>33</v>
@@ -750,18 +752,18 @@
       <c r="E12" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="3">
-        <v>44772</v>
+      <c r="F12" s="6" t="n">
+        <v>44772.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -771,10 +773,10 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -791,50 +793,49 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
       </c>
       <c r="B2" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="4">
-        <v>44749</v>
-      </c>
-      <c r="D2" s="4">
-        <v>44757</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
+      <c r="C2" t="n" s="7">
+        <v>44749.0</v>
+      </c>
+      <c r="D2" t="n" s="7">
+        <v>44757.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
       </c>
       <c r="B3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="4">
-        <v>44754</v>
-      </c>
-      <c r="D3" s="4">
-        <f>DATE(2022,7,7)</f>
-        <v>44749</v>
+      <c r="C3" t="n" s="7">
+        <v>44754.0</v>
+      </c>
+      <c r="D3" t="n" s="7">
+        <v>44749.0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
@@ -885,24 +886,24 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row ht="12.75" r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>44</v>
       </c>
@@ -919,9 +920,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
       </c>
       <c r="B2" t="s">
         <v>37</v>
@@ -932,13 +933,13 @@
       <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
+      <c r="E2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
       </c>
       <c r="B3" t="s">
         <v>38</v>
@@ -949,13 +950,13 @@
       <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
+      <c r="E3" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -966,13 +967,13 @@
       <c r="D4" t="s">
         <v>8</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
+      <c r="E4" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
       </c>
       <c r="B5" t="s">
         <v>39</v>
@@ -983,13 +984,13 @@
       <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
+      <c r="E5" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
@@ -1000,13 +1001,13 @@
       <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
+      <c r="E6" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -1017,13 +1018,13 @@
       <c r="D7" t="s">
         <v>15</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
+      <c r="E7" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
@@ -1034,13 +1035,13 @@
       <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
+      <c r="E8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
       </c>
       <c r="B9" t="s">
         <v>20</v>
@@ -1051,13 +1052,13 @@
       <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
+      <c r="E9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
       </c>
       <c r="B10" t="s">
         <v>42</v>
@@ -1068,13 +1069,13 @@
       <c r="D10" t="s">
         <v>8</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
+      <c r="E10" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10.0</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
@@ -1085,13 +1086,13 @@
       <c r="D11" t="s">
         <v>8</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
+      <c r="E11" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11.0</v>
       </c>
       <c r="B12" t="s">
         <v>32</v>
@@ -1102,13 +1103,13 @@
       <c r="D12" t="s">
         <v>33</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>1</v>
+      <c r="E12" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1.0</v>
       </c>
       <c r="B13" t="s">
         <v>37</v>
@@ -1119,34 +1120,34 @@
       <c r="D13" t="s">
         <v>52</v>
       </c>
-      <c r="E13">
-        <v>2</v>
+      <c r="E13" t="n">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.5703125" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="66.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="66.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="24.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row ht="12.75" r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1163,15 +1164,15 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.0</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
       </c>
-      <c r="C2">
-        <v>2</v>
+      <c r="C2" t="n">
+        <v>2.0</v>
       </c>
       <c r="D2" t="s">
         <v>28</v>
@@ -1180,15 +1181,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
       </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="C3" t="n">
+        <v>1.0</v>
       </c>
       <c r="D3" t="s">
         <v>28</v>
@@ -1197,15 +1198,15 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
       </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="C4" t="n">
+        <v>1.0</v>
       </c>
       <c r="D4" t="s">
         <v>28</v>
@@ -1214,15 +1215,15 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
       </c>
-      <c r="C5">
-        <v>2</v>
+      <c r="C5" t="n">
+        <v>2.0</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -1231,25 +1232,25 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
       </c>
       <c r="B6" t="s">
         <v>57</v>
       </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="C6" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
         <v>58</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1" verticalDpi="0"/>
 </worksheet>
 </file>